--- a/wash_P/ITA.xlsx
+++ b/wash_P/ITA.xlsx
@@ -16043,7 +16043,7 @@
         <v>0</v>
       </c>
       <c r="MB5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MC5" t="n">
         <v>0</v>
@@ -38668,7 +38668,7 @@
         <v>0</v>
       </c>
       <c r="VK12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="VL12" t="n">
         <v>0</v>
@@ -39037,7 +39037,7 @@
         <v>0</v>
       </c>
       <c r="AAD12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AAE12" t="n">
         <v>0</v>
@@ -55930,7 +55930,7 @@
         <v>0</v>
       </c>
       <c r="CC18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD18" t="n">
         <v>0</v>
@@ -84790,7 +84790,7 @@
         <v>0</v>
       </c>
       <c r="LE27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="LF27" t="n">
         <v>0</v>
@@ -86209,7 +86209,7 @@
         <v>0</v>
       </c>
       <c r="ADJ27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADK27" t="n">
         <v>0</v>
